--- a/ParametricGraph/bench4x3.xlsx
+++ b/ParametricGraph/bench4x3.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="J1:K1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -439,8 +439,8 @@
         <v>40442</v>
       </c>
       <c r="C2">
-        <f>3*5*2*10*3*5*2*10</f>
-        <v>90000</v>
+        <f>2*5*2*10*2*5*2*10</f>
+        <v>40000</v>
       </c>
     </row>
     <row r="3" spans="1:19">

--- a/ParametricGraph/bench4x3.xlsx
+++ b/ParametricGraph/bench4x3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Параметрическая функция</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Прибор 2,4</t>
+  </si>
+  <si>
+    <t>Максимизация</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -413,9 +416,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -438,9 +443,12 @@
       <c r="A2">
         <v>40442</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <f>2*5*2*10*2*5*2*10</f>
         <v>40000</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19">
